--- a/example/example1.xlsx
+++ b/example/example1.xlsx
@@ -399,7 +399,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1">
-        <v>45281.633135206575</v>
+        <v>45281.65173388889</v>
       </c>
     </row>
     <row r="3">
@@ -416,7 +416,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="1">
-        <v>45281.633135206575</v>
+        <v>45281.65173388889</v>
       </c>
     </row>
   </sheetData>
